--- a/data/trans_orig/P1420-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1420-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{128FB78F-C753-4693-964F-47C2300E8033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D672743-0547-41CC-B16C-FCCD93C36D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A2BC9E6C-620E-4EC6-8D3C-FB9357731A87}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FF9E8C6F-B02E-466C-A047-AC2A62DAD0C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="250">
   <si>
     <t>Población con diagnóstico de hemorroides en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -94,13 +94,13 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,05%</t>
+    <t>1,04%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,5%</t>
+    <t>0,6%</t>
   </si>
   <si>
     <t>No</t>
@@ -118,13 +118,13 @@
     <t>99,79%</t>
   </si>
   <si>
-    <t>98,95%</t>
+    <t>98,96%</t>
   </si>
   <si>
     <t>99,9%</t>
   </si>
   <si>
-    <t>99,5%</t>
+    <t>99,4%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -142,610 +142,619 @@
     <t>0,57%</t>
   </si>
   <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hemorroides en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
   </si>
   <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hemorroides en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
   </si>
   <si>
     <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hemorroides en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hemorroides en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -1190,7 +1199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C829658B-E084-4D64-A5EE-F9ADCDD230C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B5ABFC-A889-420E-BE0C-B36A0E899CE0}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1810,10 +1819,10 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1831,7 +1840,7 @@
         <v>41</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>22</v>
@@ -1843,13 +1852,13 @@
         <v>704674</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M14" s="7">
         <v>1311</v>
@@ -1861,10 +1870,10 @@
         <v>23</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1920,7 +1929,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1938,37 +1947,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,13 +1992,13 @@
         <v>3306</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -1998,13 +2007,13 @@
         <v>10877</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -2013,13 +2022,13 @@
         <v>14183</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,13 +2043,13 @@
         <v>611311</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="H18" s="7">
         <v>528</v>
@@ -2398,10 +2407,10 @@
         <v>105</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -2410,13 +2419,13 @@
         <v>23112</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -2425,13 +2434,13 @@
         <v>31570</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,13 +2455,13 @@
         <v>551179</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="H26" s="7">
         <v>672</v>
@@ -2461,13 +2470,13 @@
         <v>719863</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M26" s="7">
         <v>1168</v>
@@ -2476,13 +2485,13 @@
         <v>1271042</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,7 +2565,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2571,7 +2580,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2586,7 +2595,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2610,13 @@
         <v>27007</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H29" s="7">
         <v>53</v>
@@ -2616,13 +2625,13 @@
         <v>55781</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M29" s="7">
         <v>79</v>
@@ -2631,13 +2640,13 @@
         <v>82788</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,13 +2661,13 @@
         <v>3399772</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H30" s="7">
         <v>3243</v>
@@ -2667,28 +2676,28 @@
         <v>3499317</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M30" s="7">
         <v>6426</v>
       </c>
       <c r="N30" s="7">
-        <v>6899089</v>
+        <v>6899090</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,7 +2739,7 @@
         <v>6505</v>
       </c>
       <c r="N31" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>24</v>
@@ -2744,7 +2753,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2766,7 +2775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7D9F0B-4EF5-4AAD-8B90-134D1369C610}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745E5C83-55C8-4AB7-805F-12018B4F360A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2783,7 +2792,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2956,13 +2965,13 @@
         <v>996</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2971,13 +2980,13 @@
         <v>996</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,7 +3004,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>24</v>
@@ -3007,10 +3016,10 @@
         <v>394759</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -3022,10 +3031,10 @@
         <v>814222</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>22</v>
@@ -3132,7 +3141,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3156,13 @@
         <v>1019</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -3162,13 +3171,13 @@
         <v>985</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -3177,13 +3186,13 @@
         <v>2004</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,10 +3207,10 @@
         <v>589477</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>22</v>
@@ -3213,10 +3222,10 @@
         <v>562559</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>22</v>
@@ -3228,10 +3237,10 @@
         <v>1152036</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>22</v>
@@ -3308,7 +3317,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3353,13 +3362,13 @@
         <v>5440</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3374,7 +3383,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -3383,13 +3392,13 @@
         <v>6416</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,13 +3413,13 @@
         <v>663657</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H14" s="7">
         <v>664</v>
@@ -3422,7 +3431,7 @@
         <v>41</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>22</v>
@@ -3434,10 +3443,10 @@
         <v>1324067</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>25</v>
@@ -3496,7 +3505,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3529,7 +3538,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3559,13 +3568,13 @@
         <v>8203</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3574,13 +3583,13 @@
         <v>7411</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>165</v>
+        <v>36</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -3589,13 +3598,13 @@
         <v>15614</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,13 +3619,13 @@
         <v>637845</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H18" s="7">
         <v>595</v>
@@ -3625,28 +3634,28 @@
         <v>641666</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="M18" s="7">
         <v>1170</v>
       </c>
       <c r="N18" s="7">
-        <v>1279511</v>
+        <v>1279512</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,7 +3697,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>24</v>
@@ -3735,7 +3744,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3765,13 +3774,13 @@
         <v>8870</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -3780,13 +3789,13 @@
         <v>18903</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -3795,13 +3804,13 @@
         <v>27773</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,13 +3825,13 @@
         <v>469048</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H22" s="7">
         <v>418</v>
@@ -3831,13 +3840,13 @@
         <v>477946</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M22" s="7">
         <v>836</v>
@@ -3846,13 +3855,13 @@
         <v>946994</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,7 +3935,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3971,13 +3980,13 @@
         <v>10001</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -3986,13 +3995,13 @@
         <v>16679</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -4001,13 +4010,13 @@
         <v>26680</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,13 +4031,13 @@
         <v>581327</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="H26" s="7">
         <v>640</v>
@@ -4132,7 +4141,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4147,7 +4156,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4162,7 +4171,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4186,13 @@
         <v>33533</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>65</v>
+        <v>215</v>
       </c>
       <c r="H29" s="7">
         <v>40</v>
@@ -4192,13 +4201,13 @@
         <v>45950</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>88</v>
+        <v>217</v>
       </c>
       <c r="M29" s="7">
         <v>70</v>
@@ -4207,13 +4216,13 @@
         <v>79483</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4237,13 @@
         <v>3360817</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H30" s="7">
         <v>3298</v>
@@ -4243,13 +4252,13 @@
         <v>3498592</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="M30" s="7">
         <v>6499</v>
@@ -4261,10 +4270,10 @@
         <v>77</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,7 +4329,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4342,7 +4351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB209143-7FC8-468B-907E-FFDB6D79E719}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D834DEEB-022B-4FBE-8FFE-5DCE06F5B40E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4359,7 +4368,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4469,7 +4478,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>24</v>
@@ -4484,7 +4493,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>223</v>
+        <v>57</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>24</v>
@@ -4499,7 +4508,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>24</v>
@@ -4523,7 +4532,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4538,7 +4547,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4553,7 +4562,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,7 +4583,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4589,7 +4598,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4604,7 +4613,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,7 +4684,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>24</v>
@@ -4690,7 +4699,7 @@
         <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -4705,7 +4714,7 @@
         <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>24</v>
@@ -4729,7 +4738,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>230</v>
+        <v>69</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4744,7 +4753,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4759,7 +4768,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,7 +4789,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>230</v>
+        <v>69</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4795,7 +4804,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4810,7 +4819,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,7 +4890,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>24</v>
@@ -4896,7 +4905,7 @@
         <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>24</v>
@@ -4911,7 +4920,7 @@
         <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>59</v>
+        <v>236</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>24</v>
@@ -4935,7 +4944,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4950,7 +4959,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4965,7 +4974,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,7 +4995,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5001,7 +5010,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5016,7 +5025,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>52</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,7 +5081,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5087,7 +5096,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>24</v>
@@ -5102,7 +5111,7 @@
         <v>22</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>24</v>
@@ -5117,7 +5126,7 @@
         <v>22</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>24</v>
@@ -5156,7 +5165,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5171,7 +5180,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,7 +5216,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5222,7 +5231,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,7 +5302,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>24</v>
@@ -5308,7 +5317,7 @@
         <v>22</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -5323,7 +5332,7 @@
         <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>24</v>
@@ -5362,7 +5371,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5377,7 +5386,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,7 +5422,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5428,7 +5437,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,7 +5508,7 @@
         <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>24</v>
@@ -5514,7 +5523,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>24</v>
@@ -5529,7 +5538,7 @@
         <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>24</v>
@@ -5553,7 +5562,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5568,7 +5577,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5583,7 +5592,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,7 +5613,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5619,7 +5628,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5634,7 +5643,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,7 +5714,7 @@
         <v>22</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>24</v>
@@ -5720,7 +5729,7 @@
         <v>22</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>24</v>
@@ -5735,7 +5744,7 @@
         <v>22</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>24</v>
@@ -5759,7 +5768,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5774,7 +5783,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5789,7 +5798,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,7 +5819,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5825,7 +5834,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5840,7 +5849,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,7 +5905,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1420-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1420-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D672743-0547-41CC-B16C-FCCD93C36D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7782A0E2-D7A2-4C89-ABEF-64745FFDB57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FF9E8C6F-B02E-466C-A047-AC2A62DAD0C0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{780E971A-DE8B-4C00-97F5-158AAEC2674E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="247">
   <si>
     <t>Población con diagnóstico de hemorroides en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -94,651 +94,648 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,04%</t>
+    <t>0,93%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hemorroides en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
   </si>
   <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
   </si>
   <si>
     <t>98,86%</t>
   </si>
   <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hemorroides en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hemorroides en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hemorroides en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
     <t>0,42%</t>
   </si>
   <si>
@@ -748,13 +745,7 @@
     <t>99,77%</t>
   </si>
   <si>
-    <t>99,86%</t>
-  </si>
-  <si>
     <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -1199,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B5ABFC-A889-420E-BE0C-B36A0E899CE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE5718D-9B35-474C-A091-79FF40FD54FD}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1583,10 +1574,10 @@
         <v>33</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -1595,13 +1586,13 @@
         <v>1987</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -1613,7 +1604,7 @@
         <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>38</v>
@@ -1667,7 +1658,7 @@
         <v>45</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1723,7 +1714,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1792,7 +1783,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -1801,13 +1792,13 @@
         <v>4900</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -1819,10 +1810,10 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1837,10 +1828,10 @@
         <v>680821</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>22</v>
@@ -1852,13 +1843,13 @@
         <v>704674</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M14" s="7">
         <v>1311</v>
@@ -1870,10 +1861,10 @@
         <v>23</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,7 +1920,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1947,37 +1938,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,13 +1983,13 @@
         <v>3306</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -2007,13 +1998,13 @@
         <v>10877</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -2022,13 +2013,13 @@
         <v>14183</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,13 +2034,13 @@
         <v>611311</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H18" s="7">
         <v>528</v>
@@ -2058,13 +2049,13 @@
         <v>603387</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M18" s="7">
         <v>1073</v>
@@ -2073,13 +2064,13 @@
         <v>1214697</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,7 +2126,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2153,7 +2144,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2168,7 +2159,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2183,7 +2174,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,13 +2189,13 @@
         <v>10314</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -2213,13 +2204,13 @@
         <v>14017</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M21" s="7">
         <v>23</v>
@@ -2228,13 +2219,13 @@
         <v>24330</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,13 +2240,13 @@
         <v>419115</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H22" s="7">
         <v>393</v>
@@ -2264,13 +2255,13 @@
         <v>433783</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M22" s="7">
         <v>776</v>
@@ -2279,13 +2270,13 @@
         <v>852899</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,7 +2332,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2359,7 +2350,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2374,7 +2365,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2389,7 +2380,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2395,13 @@
         <v>8458</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -2419,13 +2410,13 @@
         <v>23112</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -2434,13 +2425,13 @@
         <v>31570</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,13 +2446,13 @@
         <v>551179</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H26" s="7">
         <v>672</v>
@@ -2470,13 +2461,13 @@
         <v>719863</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M26" s="7">
         <v>1168</v>
@@ -2485,13 +2476,13 @@
         <v>1271042</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,7 +2556,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2580,7 +2571,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2595,7 +2586,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,13 +2601,13 @@
         <v>27007</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H29" s="7">
         <v>53</v>
@@ -2625,13 +2616,13 @@
         <v>55781</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M29" s="7">
         <v>79</v>
@@ -2640,13 +2631,13 @@
         <v>82788</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,13 +2652,13 @@
         <v>3399772</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H30" s="7">
         <v>3243</v>
@@ -2676,28 +2667,28 @@
         <v>3499317</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M30" s="7">
         <v>6426</v>
       </c>
       <c r="N30" s="7">
-        <v>6899090</v>
+        <v>6899089</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,7 +2730,7 @@
         <v>6505</v>
       </c>
       <c r="N31" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>24</v>
@@ -2753,7 +2744,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2775,7 +2766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745E5C83-55C8-4AB7-805F-12018B4F360A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADDE119-21C1-48C9-A114-773DD8CF0E80}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2792,7 +2783,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2905,7 +2896,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2920,7 +2911,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2935,7 +2926,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,7 +2947,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2965,13 +2956,13 @@
         <v>996</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2980,13 +2971,13 @@
         <v>996</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,7 +2995,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>24</v>
@@ -3016,10 +3007,10 @@
         <v>394759</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -3031,10 +3022,10 @@
         <v>814222</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>22</v>
@@ -3126,7 +3117,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3141,7 +3132,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,13 +3147,13 @@
         <v>1019</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -3171,13 +3162,13 @@
         <v>985</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -3186,13 +3177,13 @@
         <v>2004</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,7 +3198,7 @@
         <v>589477</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>154</v>
@@ -3222,7 +3213,7 @@
         <v>562559</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>155</v>
@@ -3237,10 +3228,10 @@
         <v>1152036</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>22</v>
@@ -3299,7 +3290,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3317,7 +3308,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3362,13 +3353,13 @@
         <v>5440</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3383,7 +3374,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -3392,13 +3383,13 @@
         <v>6416</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,13 +3404,13 @@
         <v>663657</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
         <v>664</v>
@@ -3428,10 +3419,10 @@
         <v>660410</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>22</v>
@@ -3443,10 +3434,10 @@
         <v>1324067</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>25</v>
@@ -3505,7 +3496,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3523,7 +3514,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3538,7 +3529,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3553,7 +3544,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3559,13 @@
         <v>8203</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3583,13 +3574,13 @@
         <v>7411</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -3598,13 +3589,13 @@
         <v>15614</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,13 +3610,13 @@
         <v>637845</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="H18" s="7">
         <v>595</v>
@@ -3634,28 +3625,28 @@
         <v>641666</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="M18" s="7">
         <v>1170</v>
       </c>
       <c r="N18" s="7">
-        <v>1279512</v>
+        <v>1279511</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,7 +3688,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>24</v>
@@ -3711,7 +3702,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3744,7 +3735,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3774,13 +3765,13 @@
         <v>8870</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -3789,13 +3780,13 @@
         <v>18903</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -3804,13 +3795,13 @@
         <v>27773</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3816,13 @@
         <v>469048</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>187</v>
+        <v>97</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H22" s="7">
         <v>418</v>
@@ -3840,13 +3831,13 @@
         <v>477946</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M22" s="7">
         <v>836</v>
@@ -3855,13 +3846,13 @@
         <v>946994</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,7 +3908,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3935,7 +3926,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3980,13 +3971,13 @@
         <v>10001</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -3995,13 +3986,13 @@
         <v>16679</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>199</v>
+        <v>106</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -4010,13 +4001,13 @@
         <v>26680</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4022,13 @@
         <v>581327</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="H26" s="7">
         <v>640</v>
@@ -4046,13 +4037,13 @@
         <v>761252</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>207</v>
+        <v>116</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M26" s="7">
         <v>1256</v>
@@ -4061,13 +4052,13 @@
         <v>1342579</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,7 +4132,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4156,7 +4147,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4171,7 +4162,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4177,13 @@
         <v>33533</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>213</v>
+        <v>37</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H29" s="7">
         <v>40</v>
@@ -4201,13 +4192,13 @@
         <v>45950</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>52</v>
+        <v>218</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M29" s="7">
         <v>70</v>
@@ -4216,13 +4207,13 @@
         <v>79483</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>218</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>219</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4228,13 @@
         <v>3360817</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H30" s="7">
         <v>3298</v>
@@ -4252,13 +4243,13 @@
         <v>3498592</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M30" s="7">
         <v>6499</v>
@@ -4267,13 +4258,13 @@
         <v>6859409</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>225</v>
+        <v>69</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,7 +4320,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4351,7 +4342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D834DEEB-022B-4FBE-8FFE-5DCE06F5B40E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223B3FAE-CFB9-40C4-BD3A-9C3B52CD82D9}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4368,7 +4359,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4478,7 +4469,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>24</v>
@@ -4493,7 +4484,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>57</v>
+        <v>226</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>24</v>
@@ -4508,7 +4499,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>229</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>24</v>
@@ -4532,7 +4523,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4547,7 +4538,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>52</v>
+        <v>228</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4562,7 +4553,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>231</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,7 +4574,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4598,7 +4589,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>52</v>
+        <v>228</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4613,7 +4604,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>231</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,7 +4675,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>24</v>
@@ -4699,7 +4690,7 @@
         <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -4714,7 +4705,7 @@
         <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>24</v>
@@ -4738,7 +4729,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>69</v>
+        <v>231</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4753,7 +4744,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4768,7 +4759,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,7 +4780,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4804,7 +4795,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4819,7 +4810,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,7 +4866,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4890,7 +4881,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>24</v>
@@ -4905,7 +4896,7 @@
         <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>24</v>
@@ -4920,7 +4911,7 @@
         <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>24</v>
@@ -4944,7 +4935,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4959,7 +4950,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4974,7 +4965,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>238</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,7 +4986,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5010,7 +5001,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5025,7 +5016,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,7 +5072,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5096,7 +5087,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>24</v>
@@ -5111,7 +5102,7 @@
         <v>22</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>24</v>
@@ -5120,13 +5111,13 @@
         <v>1806</v>
       </c>
       <c r="N16" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>24</v>
@@ -5165,7 +5156,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5180,7 +5171,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5216,7 +5207,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5231,7 +5222,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5273,7 +5264,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>24</v>
@@ -5287,7 +5278,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5302,7 +5293,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>24</v>
@@ -5317,7 +5308,7 @@
         <v>22</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -5332,7 +5323,7 @@
         <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>24</v>
@@ -5371,7 +5362,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5386,7 +5377,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,7 +5413,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5437,7 +5428,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,7 +5484,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5502,13 +5493,13 @@
         <v>1028</v>
       </c>
       <c r="D24" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>24</v>
@@ -5523,7 +5514,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>24</v>
@@ -5538,7 +5529,7 @@
         <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>24</v>
@@ -5562,7 +5553,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5577,7 +5568,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5592,7 +5583,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,7 +5604,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5628,7 +5619,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5643,7 +5634,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,7 +5646,7 @@
         <v>1028</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>24</v>
@@ -5714,7 +5705,7 @@
         <v>22</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>24</v>
@@ -5729,7 +5720,7 @@
         <v>22</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>24</v>
@@ -5738,13 +5729,13 @@
         <v>8743</v>
       </c>
       <c r="N28" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>24</v>
@@ -5768,7 +5759,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5783,7 +5774,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5798,7 +5789,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,7 +5810,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5834,7 +5825,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5849,7 +5840,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,7 +5882,7 @@
         <v>8743</v>
       </c>
       <c r="N31" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>24</v>
@@ -5905,7 +5896,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1420-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1420-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2397DBAF-5C78-442A-94C7-BA1B6F682214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35261E59-A5FF-4B9D-B7A7-45A7C02FF077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FAA0C8CD-E5CA-4C15-B3F9-4918290147A5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{83106F1A-5D48-4DAA-BCFA-EED764CA35AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="224">
   <si>
     <t>Población con diagnóstico de hemorroides en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -117,7 +117,7 @@
     <t>99,5%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,57%</t>
@@ -168,7 +168,7 @@
     <t>99,84%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,73%</t>
@@ -207,7 +207,7 @@
     <t>99,86%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,54%</t>
@@ -258,7 +258,7 @@
     <t>99,38%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>2,4%</t>
@@ -315,55 +315,112 @@
     <t>98,27%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
   <si>
     <t>0,79%</t>
@@ -525,9 +582,6 @@
     <t>1,86%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
     <t>3,97%</t>
   </si>
   <si>
@@ -555,9 +609,6 @@
     <t>96,03%</t>
   </si>
   <si>
-    <t>99,36%</t>
-  </si>
-  <si>
     <t>96,2%</t>
   </si>
   <si>
@@ -576,66 +627,75 @@
     <t>98,13%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
     <t>0,89%</t>
   </si>
   <si>
@@ -643,9 +703,6 @@
   </si>
   <si>
     <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
   </si>
   <si>
     <t>98,58%</t>
@@ -1063,8 +1120,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F5D0CA-E6EE-4DE5-889E-E6DE0E5AC075}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1475D8-7C16-403B-8399-ECD83C36BDB0}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1956,49 +2013,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>8458</v>
+        <v>5099</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>93</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H19" s="7">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I19" s="7">
-        <v>23112</v>
+        <v>9738</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M19" s="7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N19" s="7">
-        <v>31570</v>
+        <v>14837</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,49 +2064,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>496</v>
+        <v>277</v>
       </c>
       <c r="D20" s="7">
-        <v>551179</v>
+        <v>304687</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
-        <v>672</v>
+        <v>334</v>
       </c>
       <c r="I20" s="7">
-        <v>719863</v>
+        <v>344258</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M20" s="7">
-        <v>1168</v>
+        <v>611</v>
       </c>
       <c r="N20" s="7">
-        <v>1271042</v>
+        <v>648945</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,10 +2115,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -2073,10 +2130,10 @@
         <v>21</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
@@ -2088,10 +2145,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -2105,55 +2162,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>27007</v>
+        <v>3359</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I22" s="7">
-        <v>55781</v>
+        <v>13374</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M22" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="N22" s="7">
-        <v>82788</v>
+        <v>16733</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2162,49 +2219,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>3183</v>
+        <v>219</v>
       </c>
       <c r="D23" s="7">
-        <v>3399772</v>
+        <v>246492</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H23" s="7">
-        <v>3243</v>
+        <v>338</v>
       </c>
       <c r="I23" s="7">
-        <v>3499317</v>
+        <v>375605</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M23" s="7">
-        <v>6426</v>
+        <v>557</v>
       </c>
       <c r="N23" s="7">
-        <v>6899089</v>
+        <v>622097</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2213,63 +2270,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>26</v>
+      </c>
+      <c r="D25" s="7">
+        <v>27007</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="7">
+        <v>53</v>
+      </c>
+      <c r="I25" s="7">
+        <v>55781</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M25" s="7">
+        <v>79</v>
+      </c>
+      <c r="N25" s="7">
+        <v>82788</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3183</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3399772</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3243</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3499317</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6426</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6899089</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3555098</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="7">
         <v>6505</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6981877</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>125</v>
+      <c r="O27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2282,8 +2495,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C64F80C-794D-4B30-81CB-C972058D7E58}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990704AE-C9F2-4B81-B5FD-1B6055B3CF4D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2299,7 +2512,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2412,7 +2625,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2421,13 +2634,13 @@
         <v>996</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2436,13 +2649,13 @@
         <v>996</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2460,7 +2673,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2472,10 +2685,10 @@
         <v>394759</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2487,10 +2700,10 @@
         <v>814222</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2561,13 +2774,13 @@
         <v>1019</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2576,7 +2789,7 @@
         <v>985</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
@@ -2591,13 +2804,13 @@
         <v>2004</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,10 +2825,10 @@
         <v>589477</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2627,7 +2840,7 @@
         <v>562559</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>69</v>
@@ -2642,10 +2855,10 @@
         <v>1152036</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2716,10 +2929,10 @@
         <v>5440</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>78</v>
@@ -2746,13 +2959,13 @@
         <v>6416</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,13 +2980,13 @@
         <v>663657</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>88</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H11" s="7">
         <v>664</v>
@@ -2797,10 +3010,10 @@
         <v>1324067</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>22</v>
@@ -2871,13 +3084,13 @@
         <v>8203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2886,13 +3099,13 @@
         <v>7411</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -2904,10 +3117,10 @@
         <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,13 +3135,13 @@
         <v>637845</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="H14" s="7">
         <v>595</v>
@@ -2937,13 +3150,13 @@
         <v>641666</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>1170</v>
@@ -2955,10 +3168,10 @@
         <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3239,13 @@
         <v>8870</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -3041,13 +3254,13 @@
         <v>18903</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -3056,13 +3269,13 @@
         <v>27773</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3290,13 @@
         <v>469048</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="H17" s="7">
         <v>418</v>
@@ -3092,13 +3305,13 @@
         <v>477946</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
         <v>836</v>
@@ -3107,13 +3320,13 @@
         <v>946994</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,49 +3388,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>10001</v>
+        <v>4888</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="H19" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>16679</v>
+        <v>9054</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M19" s="7">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N19" s="7">
-        <v>26680</v>
+        <v>13942</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,49 +3439,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>616</v>
+        <v>320</v>
       </c>
       <c r="D20" s="7">
-        <v>581327</v>
+        <v>329442</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>189</v>
+        <v>68</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="H20" s="7">
-        <v>640</v>
+        <v>345</v>
       </c>
       <c r="I20" s="7">
-        <v>761252</v>
+        <v>368708</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="M20" s="7">
-        <v>1256</v>
+        <v>665</v>
       </c>
       <c r="N20" s="7">
-        <v>1342579</v>
+        <v>698150</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,10 +3490,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -3292,10 +3505,10 @@
         <v>21</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
@@ -3307,10 +3520,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -3324,55 +3537,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>33533</v>
+        <v>5113</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="H22" s="7">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="I22" s="7">
-        <v>45950</v>
+        <v>7625</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="M22" s="7">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="N22" s="7">
-        <v>79483</v>
+        <v>12738</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>62</v>
+        <v>211</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,49 +3594,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>3201</v>
+        <v>296</v>
       </c>
       <c r="D23" s="7">
-        <v>3360817</v>
+        <v>251885</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="H23" s="7">
-        <v>3298</v>
+        <v>295</v>
       </c>
       <c r="I23" s="7">
-        <v>3498592</v>
+        <v>392544</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="M23" s="7">
-        <v>6499</v>
+        <v>591</v>
       </c>
       <c r="N23" s="7">
-        <v>6859409</v>
+        <v>644429</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,63 +3645,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>30</v>
+      </c>
+      <c r="D25" s="7">
+        <v>33533</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="7">
+        <v>40</v>
+      </c>
+      <c r="I25" s="7">
+        <v>45950</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M25" s="7">
+        <v>70</v>
+      </c>
+      <c r="N25" s="7">
+        <v>79483</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3201</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3360817</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3298</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3498592</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6499</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6859409</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>125</v>
+      <c r="O27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
